--- a/wykresy.xlsx
+++ b/wykresy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-jan\Desktop\studia\6 sem\spd\spd lab2 (19.03) witi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AECF3101-DB41-4F2C-8288-BE5208ECB44B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{505479AE-E8F5-46AF-BDCD-51FACD7AFFA9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>l.zadań</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>skala:</t>
+  </si>
+  <si>
+    <t>2^n/skala</t>
+  </si>
+  <si>
+    <t>n!/skala</t>
   </si>
 </sst>
 </file>
@@ -2819,6 +2825,7 @@
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="200000000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5665,7 +5672,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5686,15 +5693,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -5714,12 +5721,12 @@
         <f>(FACT(A2))/$L$3</f>
         <v>1.0277777777777778E-9</v>
       </c>
+      <c r="E2" s="2">
+        <f>2^A2</f>
+        <v>16</v>
+      </c>
       <c r="F2" s="2">
-        <f t="shared" ref="F2:F13" si="0">2^A2</f>
-        <v>16</v>
-      </c>
-      <c r="G2" s="2">
-        <f t="shared" ref="G2:G13" si="1">FACT(A2)</f>
+        <f>FACT(A2)</f>
         <v>24</v>
       </c>
     </row>
@@ -5739,23 +5746,23 @@
         <f>(FACT(A3))/$L$3</f>
         <v>1.5540000000000001E-4</v>
       </c>
+      <c r="E3" s="2">
+        <f>2^A3</f>
+        <v>1024</v>
+      </c>
       <c r="F3" s="2">
-        <f t="shared" si="0"/>
-        <v>1024</v>
-      </c>
-      <c r="G3" s="2">
-        <f t="shared" si="1"/>
+        <f>FACT(A3)</f>
         <v>3628800</v>
       </c>
       <c r="I3" t="s">
         <v>4</v>
       </c>
       <c r="J3">
+        <f>E3/B3</f>
+        <v>6589446.5894465894</v>
+      </c>
+      <c r="L3">
         <f>F3/B3</f>
-        <v>6589446.5894465894</v>
-      </c>
-      <c r="L3">
-        <f>G3/B3</f>
         <v>23351351351.351349</v>
       </c>
     </row>
@@ -5768,19 +5775,19 @@
         <v>3.5080000000000002E-4</v>
       </c>
       <c r="C4" s="2">
-        <f t="shared" ref="C3:C13" si="2">(2^A4)/$J$3</f>
+        <f t="shared" ref="C4:C13" si="0">(2^A4)/$J$3</f>
         <v>3.1080000000000002E-4</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ref="D3:D13" si="3">(FACT(A4))/$L$3</f>
+        <f t="shared" ref="D4:D13" si="1">(FACT(A4))/$L$3</f>
         <v>1.7094000000000002E-3</v>
       </c>
+      <c r="E4" s="2">
+        <f>2^A4</f>
+        <v>2048</v>
+      </c>
       <c r="F4" s="2">
-        <f t="shared" si="0"/>
-        <v>2048</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" si="1"/>
+        <f>FACT(A4)</f>
         <v>39916800</v>
       </c>
     </row>
@@ -5793,23 +5800,23 @@
         <v>7.2400000000000003E-4</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6.2160000000000004E-4</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.0512800000000001E-2</v>
       </c>
+      <c r="E5" s="2">
+        <f>2^A5</f>
+        <v>4096</v>
+      </c>
       <c r="F5" s="2">
-        <f t="shared" si="0"/>
-        <v>4096</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="1"/>
+        <f>FACT(A5)</f>
         <v>479001600</v>
       </c>
       <c r="J5">
-        <f>F5/B5</f>
+        <f>E5/B5</f>
         <v>5657458.563535911</v>
       </c>
     </row>
@@ -5822,19 +5829,19 @@
         <v>1.5529999999999999E-3</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.2432000000000001E-3</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>0.26666640000000003</v>
       </c>
+      <c r="E6" s="2">
+        <f>2^A6</f>
+        <v>8192</v>
+      </c>
       <c r="F6" s="2">
-        <f t="shared" si="0"/>
-        <v>8192</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="1"/>
+        <f>FACT(A6)</f>
         <v>6227020800</v>
       </c>
     </row>
@@ -5847,19 +5854,19 @@
         <v>3.2000000000000002E-3</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.4864000000000002E-3</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.7333296000000002</v>
       </c>
+      <c r="E7" s="2">
+        <f>2^A7</f>
+        <v>16384</v>
+      </c>
       <c r="F7" s="2">
-        <f t="shared" si="0"/>
-        <v>16384</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="1"/>
+        <f>FACT(A7)</f>
         <v>87178291200</v>
       </c>
     </row>
@@ -5872,23 +5879,23 @@
         <v>6.5537500000000005E-3</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4.9728000000000003E-3</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>55.999944000000006</v>
       </c>
+      <c r="E8" s="2">
+        <f>2^A8</f>
+        <v>32768</v>
+      </c>
       <c r="F8" s="2">
-        <f t="shared" si="0"/>
-        <v>32768</v>
-      </c>
-      <c r="G8" s="2">
-        <f t="shared" si="1"/>
+        <f>FACT(A8)</f>
         <v>1307674368000</v>
       </c>
       <c r="J8">
-        <f>F8/B8</f>
+        <f>E8/B8</f>
         <v>4999885.5617013155</v>
       </c>
     </row>
@@ -5901,19 +5908,19 @@
         <v>1.37E-2</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>9.9456000000000006E-3</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>895.9991040000001</v>
       </c>
+      <c r="E9" s="2">
+        <f>2^A9</f>
+        <v>65536</v>
+      </c>
       <c r="F9" s="2">
-        <f t="shared" si="0"/>
-        <v>65536</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" si="1"/>
+        <f>FACT(A9)</f>
         <v>20922789888000</v>
       </c>
     </row>
@@ -5926,19 +5933,19 @@
         <v>2.8239999999999998E-2</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.9891200000000001E-2</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>15231.984768000002</v>
       </c>
+      <c r="E10" s="2">
+        <f>2^A10</f>
+        <v>131072</v>
+      </c>
       <c r="F10" s="2">
-        <f t="shared" si="0"/>
-        <v>131072</v>
-      </c>
-      <c r="G10" s="2">
-        <f t="shared" si="1"/>
+        <f>FACT(A10)</f>
         <v>355687428096000</v>
       </c>
     </row>
@@ -5951,19 +5958,19 @@
         <v>5.892E-2</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>3.9782400000000002E-2</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>274175.72582400002</v>
       </c>
+      <c r="E11" s="2">
+        <f>2^A11</f>
+        <v>262144</v>
+      </c>
       <c r="F11" s="2">
-        <f t="shared" si="0"/>
-        <v>262144</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="1"/>
+        <f>FACT(A11)</f>
         <v>6402373705728000</v>
       </c>
     </row>
@@ -5976,19 +5983,19 @@
         <v>0.12298000000000001</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7.9564800000000005E-2</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5209338.7906560004</v>
       </c>
+      <c r="E12" s="2">
+        <f>2^A12</f>
+        <v>524288</v>
+      </c>
       <c r="F12" s="2">
-        <f t="shared" si="0"/>
-        <v>524288</v>
-      </c>
-      <c r="G12" s="2">
-        <f t="shared" si="1"/>
+        <f>FACT(A12)</f>
         <v>1.21645100408832E+17</v>
       </c>
     </row>
@@ -6001,23 +6008,23 @@
         <v>0.24679999999999999</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.15912960000000001</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>104186775.81312001</v>
       </c>
+      <c r="E13" s="2">
+        <f>2^A13</f>
+        <v>1048576</v>
+      </c>
       <c r="F13" s="2">
-        <f t="shared" si="0"/>
-        <v>1048576</v>
-      </c>
-      <c r="G13" s="2">
-        <f t="shared" si="1"/>
+        <f>FACT(A13)</f>
         <v>2.43290200817664E+18</v>
       </c>
       <c r="J13">
-        <f>F13/B13</f>
+        <f>E13/B13</f>
         <v>4248687.1961102104</v>
       </c>
     </row>
